--- a/data/trans_orig/P1413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A52FE5D-5816-469E-B004-52F3EE3C860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECE9A82-9F2A-4CE4-9232-E14FAAC47533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{842EC64B-E1C7-4973-8E67-A39FBAE20503}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C4635E9-FE1A-4A5E-9196-237CC5389EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="679">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>11,98%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>88,02%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>21,72%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>66,77%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -233,1615 +233,1642 @@
     <t>8,4%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>21,38%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>69,11%</t>
   </si>
   <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>75,71%</t>
   </si>
   <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>31,33%</t>
+    <t>31,88%</t>
   </si>
   <si>
     <t>40,72%</t>
@@ -1850,34 +1877,37 @@
     <t>31,4%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
   <si>
     <t>63,44%</t>
   </si>
   <si>
-    <t>59,03%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -1886,178 +1916,166 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>24,68%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
 </sst>
 </file>
@@ -2469,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BAEDE1-2866-47A9-BADE-641B8AF6E2BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C90FFF-819C-4A42-91F0-47DF61A91E1A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3468,13 +3486,13 @@
         <v>11587</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -3483,13 +3501,13 @@
         <v>29027</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -3498,7 +3516,7 @@
         <v>40614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>113</v>
@@ -3519,13 +3537,13 @@
         <v>191721</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -3534,13 +3552,13 @@
         <v>178641</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -4104,10 +4122,10 @@
         <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>334</v>
@@ -4116,13 +4134,13 @@
         <v>342051</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4155,13 @@
         <v>588972</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>569</v>
@@ -4152,13 +4170,13 @@
         <v>596283</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>1147</v>
@@ -4167,13 +4185,13 @@
         <v>1185255</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4262,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4277,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4310,13 @@
         <v>530249</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>638</v>
@@ -4307,13 +4325,13 @@
         <v>650219</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>1176</v>
@@ -4322,13 +4340,13 @@
         <v>1180467</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4361,13 @@
         <v>2746295</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H38" s="7">
         <v>2659</v>
@@ -4358,28 +4376,28 @@
         <v>2728979</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M38" s="7">
         <v>5335</v>
       </c>
       <c r="N38" s="7">
-        <v>5475273</v>
+        <v>5475274</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4439,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4435,7 +4453,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4F33CB-4DC9-4706-8650-CB96CD528A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E5FB21-1FD0-4E2A-ABE7-04280F34CF54}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4476,7 +4494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4581,39 +4599,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,39 +4644,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,39 +4689,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,39 +4734,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4816,13 +4834,13 @@
         <v>28307</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -4831,13 +4849,13 @@
         <v>64828</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>84</v>
@@ -4846,13 +4864,13 @@
         <v>93135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4885,13 @@
         <v>477220</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>420</v>
@@ -4882,13 +4900,13 @@
         <v>458937</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>868</v>
@@ -4897,7 +4915,7 @@
         <v>936157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>224</v>
@@ -5249,7 +5267,7 @@
         <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -5258,13 +5276,13 @@
         <v>198323</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5297,13 @@
         <v>615065</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>492</v>
@@ -5294,13 +5312,13 @@
         <v>531528</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
         <v>1068</v>
@@ -5309,13 +5327,13 @@
         <v>1146593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5404,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5434,13 +5452,13 @@
         <v>31133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -5449,13 +5467,13 @@
         <v>70323</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -5464,13 +5482,13 @@
         <v>101456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5503,13 @@
         <v>181485</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -5500,13 +5518,13 @@
         <v>149268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
@@ -5515,13 +5533,13 @@
         <v>330753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5640,13 +5658,13 @@
         <v>37827</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -5655,13 +5673,13 @@
         <v>48972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -5670,13 +5688,13 @@
         <v>86799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5709,13 @@
         <v>236154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>221</v>
@@ -5706,13 +5724,13 @@
         <v>229124</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>446</v>
@@ -5721,13 +5739,13 @@
         <v>465278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5864,13 @@
         <v>70051</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -5861,13 +5879,13 @@
         <v>141287</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>196</v>
@@ -5876,13 +5894,13 @@
         <v>211338</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,7 +5936,7 @@
         <v>312</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="M30" s="7">
         <v>1058</v>
@@ -5927,13 +5945,13 @@
         <v>1145303</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6022,7 +6040,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6052,13 +6070,13 @@
         <v>63902</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H33" s="7">
         <v>112</v>
@@ -6067,13 +6085,13 @@
         <v>124720</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M33" s="7">
         <v>171</v>
@@ -6082,13 +6100,13 @@
         <v>188622</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6121,13 @@
         <v>715196</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H34" s="7">
         <v>644</v>
@@ -6118,10 +6136,10 @@
         <v>697858</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>331</v>
@@ -6213,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6228,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6243,7 +6261,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,7 +6303,7 @@
         <v>881</v>
       </c>
       <c r="N37" s="7">
-        <v>954499</v>
+        <v>954500</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>341</v>
@@ -6387,7 +6405,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6401,7 +6419,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +6443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3538C328-ABF2-4136-8EA5-09E51025BA0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279C1F6F-D171-44E5-AF1B-6AA609DDD6D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6606,7 +6624,7 @@
         <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -6615,13 +6633,13 @@
         <v>56875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -6630,13 +6648,13 @@
         <v>85322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6669,13 @@
         <v>265314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>225</v>
@@ -6666,13 +6684,13 @@
         <v>231828</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>465</v>
@@ -6681,13 +6699,13 @@
         <v>497142</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,7 +6779,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6776,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6806,13 +6824,13 @@
         <v>23014</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -6821,13 +6839,13 @@
         <v>36147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M9" s="7">
         <v>56</v>
@@ -6836,13 +6854,13 @@
         <v>59161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6875,13 @@
         <v>479561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>451</v>
@@ -6872,13 +6890,13 @@
         <v>486937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>386</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>903</v>
@@ -6887,13 +6905,13 @@
         <v>966498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,7 +7000,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6997,7 +7015,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,13 +7030,13 @@
         <v>24003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -7027,13 +7045,13 @@
         <v>49810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -7042,13 +7060,13 @@
         <v>73813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7081,13 @@
         <v>294562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>287</v>
@@ -7078,13 +7096,13 @@
         <v>286499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>596</v>
@@ -7093,13 +7111,13 @@
         <v>581061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,7 +7191,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7203,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7236,13 @@
         <v>29735</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7233,13 +7251,13 @@
         <v>70693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -7248,13 +7266,13 @@
         <v>100428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7287,13 @@
         <v>340229</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>241</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -7284,13 +7302,13 @@
         <v>316590</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>619</v>
@@ -7299,13 +7317,13 @@
         <v>656819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>421</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7394,7 +7412,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7409,7 +7427,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7442,13 @@
         <v>19227</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>427</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -7439,13 +7457,13 @@
         <v>30869</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M21" s="7">
         <v>49</v>
@@ -7454,13 +7472,13 @@
         <v>50095</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7493,13 @@
         <v>191994</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -7490,13 +7508,13 @@
         <v>187718</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>386</v>
@@ -7505,13 +7523,13 @@
         <v>379713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,7 +7603,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7600,7 +7618,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7630,13 +7648,13 @@
         <v>24214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -7645,13 +7663,13 @@
         <v>31454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7660,13 +7678,13 @@
         <v>55668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7699,13 @@
         <v>238909</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -7696,13 +7714,13 @@
         <v>241661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>254</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>472</v>
@@ -7711,13 +7729,13 @@
         <v>480570</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7836,13 +7854,13 @@
         <v>62230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -7851,13 +7869,13 @@
         <v>113120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>341</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>159</v>
@@ -7866,13 +7884,13 @@
         <v>175350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7905,13 @@
         <v>594328</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>468</v>
+        <v>137</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7">
         <v>543</v>
@@ -7902,13 +7920,13 @@
         <v>578174</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="M30" s="7">
         <v>1067</v>
@@ -7917,13 +7935,13 @@
         <v>1172502</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8012,7 +8030,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8042,13 +8060,13 @@
         <v>66619</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H33" s="7">
         <v>88</v>
@@ -8057,13 +8075,13 @@
         <v>103773</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M33" s="7">
         <v>150</v>
@@ -8072,13 +8090,13 @@
         <v>170392</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8093,13 +8111,13 @@
         <v>711964</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H34" s="7">
         <v>667</v>
@@ -8108,13 +8126,13 @@
         <v>722394</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M34" s="7">
         <v>1355</v>
@@ -8123,13 +8141,13 @@
         <v>1434358</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,7 +8221,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8218,7 +8236,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8233,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,13 +8266,13 @@
         <v>277488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>443</v>
@@ -8263,13 +8281,13 @@
         <v>492741</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="M37" s="7">
         <v>706</v>
@@ -8278,13 +8296,13 @@
         <v>770229</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,13 +8317,13 @@
         <v>3116862</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H38" s="7">
         <v>2895</v>
@@ -8314,13 +8332,13 @@
         <v>3051801</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M38" s="7">
         <v>5863</v>
@@ -8329,13 +8347,13 @@
         <v>6168663</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>506</v>
+        <v>408</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,7 +8409,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -8415,7 +8433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9846D7-0C98-4759-9F5E-9B9CF6BE6346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00053B1A-0AB9-47EA-B390-1081FFCA1FDC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8432,7 +8450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8545,7 +8563,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8575,7 +8593,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8590,13 +8608,13 @@
         <v>27712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>514</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -8605,13 +8623,13 @@
         <v>33141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -8620,13 +8638,13 @@
         <v>60853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8641,13 +8659,13 @@
         <v>232586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>522</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>518</v>
+        <v>460</v>
       </c>
       <c r="H6" s="7">
         <v>467</v>
@@ -8656,13 +8674,13 @@
         <v>238262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M6" s="7">
         <v>758</v>
@@ -8671,13 +8689,13 @@
         <v>470847</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8766,7 +8784,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8781,7 +8799,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8796,13 +8814,13 @@
         <v>78668</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>407</v>
+        <v>531</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H9" s="7">
         <v>233</v>
@@ -8811,13 +8829,13 @@
         <v>167185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>534</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M9" s="7">
         <v>298</v>
@@ -8826,13 +8844,13 @@
         <v>245853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>302</v>
+        <v>536</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8847,13 +8865,13 @@
         <v>439559</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>415</v>
+        <v>540</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -8862,13 +8880,13 @@
         <v>386656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>799</v>
@@ -8877,13 +8895,13 @@
         <v>826215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8987,7 +9005,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9002,13 +9020,13 @@
         <v>63926</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>448</v>
+        <v>548</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -9017,13 +9035,13 @@
         <v>106823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -9032,13 +9050,13 @@
         <v>170750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9053,13 +9071,13 @@
         <v>258314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>558</v>
       </c>
       <c r="H14" s="7">
         <v>359</v>
@@ -9068,13 +9086,13 @@
         <v>266461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -9083,13 +9101,13 @@
         <v>524774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9163,7 +9181,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9193,7 +9211,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9208,13 +9226,13 @@
         <v>50378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -9223,13 +9241,13 @@
         <v>123627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -9238,13 +9256,13 @@
         <v>174006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,13 +9277,13 @@
         <v>271862</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>565</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="H18" s="7">
         <v>381</v>
@@ -9274,13 +9292,13 @@
         <v>304929</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="M18" s="7">
         <v>619</v>
@@ -9289,13 +9307,13 @@
         <v>576790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,13 +9396,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>583</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9393,13 +9411,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>585</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>586</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9414,13 +9432,13 @@
         <v>30458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="H21" s="7">
         <v>123</v>
@@ -9429,13 +9447,13 @@
         <v>52138</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>579</v>
+        <v>343</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>580</v>
+        <v>175</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -9444,13 +9462,13 @@
         <v>82595</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>582</v>
+        <v>517</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9465,13 +9483,13 @@
         <v>165452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
@@ -9480,13 +9498,13 @@
         <v>179359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>598</v>
@@ -9495,13 +9513,13 @@
         <v>344811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9575,7 +9593,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9590,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9605,7 +9623,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>595</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9620,13 +9638,13 @@
         <v>73528</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="H25" s="7">
         <v>198</v>
@@ -9635,13 +9653,13 @@
         <v>100045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -9650,13 +9668,13 @@
         <v>173573</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9671,13 +9689,13 @@
         <v>203695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>261</v>
@@ -9686,13 +9704,13 @@
         <v>174859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>519</v>
@@ -9701,13 +9719,13 @@
         <v>378555</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,7 +9829,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9826,13 +9844,13 @@
         <v>168301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="H29" s="7">
         <v>450</v>
@@ -9841,13 +9859,13 @@
         <v>412736</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="M29" s="7">
         <v>623</v>
@@ -9856,13 +9874,13 @@
         <v>581037</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9877,13 +9895,13 @@
         <v>455367</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="H30" s="7">
         <v>508</v>
@@ -9892,13 +9910,13 @@
         <v>390621</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="M30" s="7">
         <v>931</v>
@@ -9907,13 +9925,13 @@
         <v>845988</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9987,7 +10005,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10002,7 +10020,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10017,7 +10035,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>555</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10032,13 +10050,13 @@
         <v>145445</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="H33" s="7">
         <v>349</v>
@@ -10047,13 +10065,13 @@
         <v>245868</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="M33" s="7">
         <v>511</v>
@@ -10062,13 +10080,13 @@
         <v>391313</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>639</v>
+        <v>536</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10083,13 +10101,13 @@
         <v>713983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="H34" s="7">
         <v>712</v>
@@ -10098,13 +10116,13 @@
         <v>619804</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="M34" s="7">
         <v>1312</v>
@@ -10113,13 +10131,13 @@
         <v>1333787</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>647</v>
+        <v>423</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10193,7 +10211,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10202,13 +10220,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10217,13 +10235,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10238,13 +10256,13 @@
         <v>638416</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>655</v>
+        <v>433</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="H37" s="7">
         <v>1819</v>
@@ -10253,13 +10271,13 @@
         <v>1241563</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="M37" s="7">
         <v>2557</v>
@@ -10268,13 +10286,13 @@
         <v>1879979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10289,13 +10307,13 @@
         <v>2740818</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>664</v>
+        <v>440</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="H38" s="7">
         <v>3539</v>
@@ -10304,28 +10322,28 @@
         <v>2560950</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="M38" s="7">
         <v>6172</v>
       </c>
       <c r="N38" s="7">
-        <v>5301766</v>
+        <v>5301767</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10367,7 +10385,7 @@
         <v>8735</v>
       </c>
       <c r="N39" s="7">
-        <v>7213242</v>
+        <v>7213243</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -10381,7 +10399,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECE9A82-9F2A-4CE4-9232-E14FAAC47533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D8C0169-CFE2-4660-9294-DAB81CAE1A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C4635E9-FE1A-4A5E-9196-237CC5389EC7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{096EF558-42B1-445E-A194-70644C46BBD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="687">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1963 +95,1987 @@
     <t>11,98%</t>
   </si>
   <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>81,11%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
   </si>
   <si>
     <t>79,65%</t>
@@ -2487,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C90FFF-819C-4A42-91F0-47DF61A91E1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECB6844-95CD-4005-9ADE-0EAC74A76B44}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3486,13 +3510,13 @@
         <v>11587</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -3501,13 +3525,13 @@
         <v>29027</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -3516,13 +3540,13 @@
         <v>40614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3561,13 @@
         <v>191721</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
@@ -3552,13 +3576,13 @@
         <v>178641</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -3567,13 +3591,13 @@
         <v>370362</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,7 +3653,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3647,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3677,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3716,13 @@
         <v>35755</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3707,13 +3731,13 @@
         <v>42126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -3722,13 +3746,13 @@
         <v>77882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3767,13 @@
         <v>235056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>229</v>
@@ -3758,13 +3782,13 @@
         <v>236018</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>459</v>
@@ -3773,13 +3797,13 @@
         <v>471073</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3859,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3853,7 +3877,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3868,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3883,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3922,13 @@
         <v>92796</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -3913,13 +3937,13 @@
         <v>89869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>191</v>
@@ -3928,13 +3952,13 @@
         <v>182665</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3973,13 @@
         <v>522231</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>529</v>
@@ -3964,7 +3988,7 @@
         <v>548350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>161</v>
@@ -4122,10 +4146,10 @@
         <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>334</v>
@@ -4134,13 +4158,13 @@
         <v>342051</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4179,13 @@
         <v>588972</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>569</v>
@@ -4170,13 +4194,13 @@
         <v>596283</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>1147</v>
@@ -4185,13 +4209,13 @@
         <v>1185255</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,7 +4289,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4280,7 +4304,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4295,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,16 +4331,16 @@
         <v>538</v>
       </c>
       <c r="D37" s="7">
-        <v>530249</v>
+        <v>530248</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>638</v>
@@ -4325,13 +4349,13 @@
         <v>650219</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>1176</v>
@@ -4340,13 +4364,13 @@
         <v>1180467</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4385,13 @@
         <v>2746295</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H38" s="7">
         <v>2659</v>
@@ -4376,13 +4400,13 @@
         <v>2728979</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M38" s="7">
         <v>5335</v>
@@ -4391,13 +4415,13 @@
         <v>5475274</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4433,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4453,7 +4477,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E5FB21-1FD0-4E2A-ABE7-04280F34CF54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC364149-BA50-40C1-8E68-5F26C99B3011}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4494,7 +4518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4599,39 +4623,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,39 +4668,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,39 +4713,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,39 +4758,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,7 +4828,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4834,13 +4858,13 @@
         <v>28307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -4849,13 +4873,13 @@
         <v>64828</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>84</v>
@@ -4864,13 +4888,13 @@
         <v>93135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4909,13 @@
         <v>477220</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>420</v>
@@ -4900,13 +4924,13 @@
         <v>458937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>868</v>
@@ -4915,13 +4939,13 @@
         <v>936157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +5019,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5010,7 +5034,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5040,13 +5064,13 @@
         <v>24077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -5055,13 +5079,13 @@
         <v>50748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -5070,13 +5094,13 @@
         <v>74825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5115,13 @@
         <v>299969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>272</v>
@@ -5106,13 +5130,13 @@
         <v>290272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>568</v>
@@ -5121,13 +5145,13 @@
         <v>590241</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,7 +5225,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5216,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5231,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5270,13 @@
         <v>53655</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>135</v>
@@ -5261,13 +5285,13 @@
         <v>144668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -5276,13 +5300,13 @@
         <v>198323</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5321,13 @@
         <v>615065</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>492</v>
@@ -5312,13 +5336,13 @@
         <v>531528</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M18" s="7">
         <v>1068</v>
@@ -5327,13 +5351,13 @@
         <v>1146593</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5422,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5452,13 +5476,13 @@
         <v>31133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -5467,13 +5491,13 @@
         <v>70323</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -5482,13 +5506,13 @@
         <v>101456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5527,13 @@
         <v>181485</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -5518,13 +5542,13 @@
         <v>149268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
@@ -5533,13 +5557,13 @@
         <v>330753</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5619,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5613,7 +5637,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5643,7 +5667,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5682,13 @@
         <v>37827</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -5673,13 +5697,13 @@
         <v>48972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -5688,13 +5712,13 @@
         <v>86799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5733,13 @@
         <v>236154</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>221</v>
@@ -5724,13 +5748,13 @@
         <v>229124</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>446</v>
@@ -5739,13 +5763,13 @@
         <v>465278</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,7 +5825,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5819,7 +5843,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5849,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5888,13 @@
         <v>70051</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -5879,13 +5903,13 @@
         <v>141287</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M29" s="7">
         <v>196</v>
@@ -5894,13 +5918,13 @@
         <v>211338</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5939,13 @@
         <v>592737</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H30" s="7">
         <v>508</v>
@@ -5930,13 +5954,13 @@
         <v>552566</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="M30" s="7">
         <v>1058</v>
@@ -5945,13 +5969,13 @@
         <v>1145303</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +6049,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6040,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6070,13 +6094,13 @@
         <v>63902</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H33" s="7">
         <v>112</v>
@@ -6085,13 +6109,13 @@
         <v>124720</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M33" s="7">
         <v>171</v>
@@ -6100,13 +6124,13 @@
         <v>188622</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6145,13 @@
         <v>715196</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H34" s="7">
         <v>644</v>
@@ -6136,13 +6160,13 @@
         <v>697858</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M34" s="7">
         <v>1302</v>
@@ -6151,13 +6175,13 @@
         <v>1413054</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6255,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6246,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6261,7 +6285,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6300,13 @@
         <v>308953</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H37" s="7">
         <v>593</v>
@@ -6291,28 +6315,28 @@
         <v>645546</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M37" s="7">
         <v>881</v>
       </c>
       <c r="N37" s="7">
-        <v>954500</v>
+        <v>954499</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>341</v>
+        <v>92</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6351,13 @@
         <v>3117826</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H38" s="7">
         <v>2703</v>
@@ -6342,13 +6366,13 @@
         <v>2909552</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M38" s="7">
         <v>5624</v>
@@ -6357,7 +6381,7 @@
         <v>6027378</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>351</v>
@@ -6405,7 +6429,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6419,7 +6443,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6443,7 +6467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279C1F6F-D171-44E5-AF1B-6AA609DDD6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEB07EE-2F5D-475A-8994-9E0D912CF43E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6573,7 +6597,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6779,7 +6803,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6794,7 +6818,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7221,7 +7245,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,7 +7266,7 @@
         <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7254,10 +7278,10 @@
         <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -7266,13 +7290,13 @@
         <v>100428</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7314,7 @@
         <v>420</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>421</v>
@@ -7308,7 +7332,7 @@
         <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="M18" s="7">
         <v>619</v>
@@ -7317,10 +7341,10 @@
         <v>656819</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>426</v>
@@ -7397,7 +7421,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7448,7 +7472,7 @@
         <v>430</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>431</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -7457,13 +7481,13 @@
         <v>30869</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M21" s="7">
         <v>49</v>
@@ -7472,13 +7496,13 @@
         <v>50095</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7517,13 @@
         <v>191994</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -7508,13 +7532,13 @@
         <v>187718</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>386</v>
@@ -7523,13 +7547,13 @@
         <v>379713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,7 +7609,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7603,7 +7627,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7618,7 +7642,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7648,13 +7672,13 @@
         <v>24214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -7663,13 +7687,13 @@
         <v>31454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>248</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7678,13 +7702,13 @@
         <v>55668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7723,13 @@
         <v>238909</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -7714,13 +7738,13 @@
         <v>241661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>257</v>
       </c>
       <c r="M26" s="7">
         <v>472</v>
@@ -7791,7 +7815,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7839,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,13 +7878,13 @@
         <v>62230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -7869,13 +7893,13 @@
         <v>113120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>159</v>
@@ -7884,13 +7908,13 @@
         <v>175350</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +7929,13 @@
         <v>594328</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>474</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H30" s="7">
         <v>543</v>
@@ -7920,13 +7944,13 @@
         <v>578174</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M30" s="7">
         <v>1067</v>
@@ -7935,13 +7959,13 @@
         <v>1172502</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>157</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8060,13 +8084,13 @@
         <v>66619</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H33" s="7">
         <v>88</v>
@@ -8075,13 +8099,13 @@
         <v>103773</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M33" s="7">
         <v>150</v>
@@ -8090,13 +8114,13 @@
         <v>170392</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,13 +8135,13 @@
         <v>711964</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H34" s="7">
         <v>667</v>
@@ -8126,13 +8150,13 @@
         <v>722394</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M34" s="7">
         <v>1355</v>
@@ -8141,13 +8165,13 @@
         <v>1434358</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8221,7 +8245,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8236,7 +8260,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8251,7 +8275,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8266,13 +8290,13 @@
         <v>277488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H37" s="7">
         <v>443</v>
@@ -8281,13 +8305,13 @@
         <v>492741</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>148</v>
+        <v>506</v>
       </c>
       <c r="M37" s="7">
         <v>706</v>
@@ -8296,13 +8320,13 @@
         <v>770229</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>398</v>
+        <v>507</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,13 +8341,13 @@
         <v>3116862</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H38" s="7">
         <v>2895</v>
@@ -8332,13 +8356,13 @@
         <v>3051801</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>157</v>
+        <v>513</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M38" s="7">
         <v>5863</v>
@@ -8347,13 +8371,13 @@
         <v>6168663</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>408</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,7 +8433,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8433,7 +8457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00053B1A-0AB9-47EA-B390-1081FFCA1FDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CBC9B-3ADB-4993-B89A-B50DC48367A1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8450,7 +8474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8578,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8593,7 +8617,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,13 +8632,13 @@
         <v>27712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -8623,13 +8647,13 @@
         <v>33141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -8638,13 +8662,13 @@
         <v>60853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>519</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,13 +8683,13 @@
         <v>232586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>460</v>
+        <v>527</v>
       </c>
       <c r="H6" s="7">
         <v>467</v>
@@ -8674,13 +8698,13 @@
         <v>238262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M6" s="7">
         <v>758</v>
@@ -8689,13 +8713,13 @@
         <v>470847</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>528</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8784,7 +8808,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8799,7 +8823,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8814,13 +8838,13 @@
         <v>78668</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H9" s="7">
         <v>233</v>
@@ -8829,13 +8853,13 @@
         <v>167185</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M9" s="7">
         <v>298</v>
@@ -8844,13 +8868,13 @@
         <v>245853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>289</v>
+        <v>540</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,13 +8889,13 @@
         <v>439559</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H10" s="7">
         <v>483</v>
@@ -8880,13 +8904,13 @@
         <v>386656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M10" s="7">
         <v>799</v>
@@ -8895,13 +8919,13 @@
         <v>826215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>549</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8990,7 +9014,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -9005,7 +9029,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,13 +9044,13 @@
         <v>63926</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -9035,13 +9059,13 @@
         <v>106823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -9050,13 +9074,13 @@
         <v>170750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9071,13 +9095,13 @@
         <v>258314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H14" s="7">
         <v>359</v>
@@ -9086,13 +9110,13 @@
         <v>266461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M14" s="7">
         <v>636</v>
@@ -9101,13 +9125,13 @@
         <v>524774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9181,7 +9205,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9196,7 +9220,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9211,7 +9235,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9226,10 +9250,10 @@
         <v>50378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>168</v>
@@ -9241,13 +9265,13 @@
         <v>123627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M17" s="7">
         <v>272</v>
@@ -9256,13 +9280,13 @@
         <v>174006</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9277,13 +9301,13 @@
         <v>271862</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="H18" s="7">
         <v>381</v>
@@ -9292,13 +9316,13 @@
         <v>304929</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="M18" s="7">
         <v>619</v>
@@ -9307,13 +9331,13 @@
         <v>576790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,13 +9420,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9411,13 +9435,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>587</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9432,13 +9456,13 @@
         <v>30458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H21" s="7">
         <v>123</v>
@@ -9447,13 +9471,13 @@
         <v>52138</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>343</v>
+        <v>597</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>175</v>
+        <v>598</v>
       </c>
       <c r="M21" s="7">
         <v>171</v>
@@ -9462,13 +9486,13 @@
         <v>82595</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9483,13 +9507,13 @@
         <v>165452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
@@ -9498,13 +9522,13 @@
         <v>179359</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>598</v>
@@ -9513,13 +9537,13 @@
         <v>344811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9575,7 +9599,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9593,7 +9617,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9608,7 +9632,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9623,7 +9647,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9638,13 +9662,13 @@
         <v>73528</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
         <v>198</v>
@@ -9653,13 +9677,13 @@
         <v>100045</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="M25" s="7">
         <v>311</v>
@@ -9668,13 +9692,13 @@
         <v>173573</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,13 +9713,13 @@
         <v>203695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="H26" s="7">
         <v>261</v>
@@ -9704,13 +9728,13 @@
         <v>174859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="M26" s="7">
         <v>519</v>
@@ -9719,13 +9743,13 @@
         <v>378555</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9781,7 +9805,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9799,7 +9823,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9829,7 +9853,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9844,13 +9868,13 @@
         <v>168301</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="H29" s="7">
         <v>450</v>
@@ -9859,13 +9883,13 @@
         <v>412736</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="M29" s="7">
         <v>623</v>
@@ -9874,13 +9898,13 @@
         <v>581037</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9895,13 +9919,13 @@
         <v>455367</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H30" s="7">
         <v>508</v>
@@ -9910,13 +9934,13 @@
         <v>390621</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="M30" s="7">
         <v>931</v>
@@ -9925,13 +9949,13 @@
         <v>845988</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10005,7 +10029,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10014,13 +10038,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10029,13 +10053,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +10074,13 @@
         <v>145445</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>643</v>
+        <v>154</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H33" s="7">
         <v>349</v>
@@ -10065,13 +10089,13 @@
         <v>245868</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="M33" s="7">
         <v>511</v>
@@ -10080,13 +10104,13 @@
         <v>391313</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,13 +10125,13 @@
         <v>713983</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>651</v>
+        <v>161</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="H34" s="7">
         <v>712</v>
@@ -10116,13 +10140,13 @@
         <v>619804</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="M34" s="7">
         <v>1312</v>
@@ -10131,13 +10155,13 @@
         <v>1333787</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>423</v>
+        <v>662</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10211,7 +10235,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10220,13 +10244,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10238,10 +10262,10 @@
         <v>428</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10256,13 +10280,13 @@
         <v>638416</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>433</v>
+        <v>669</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H37" s="7">
         <v>1819</v>
@@ -10271,13 +10295,13 @@
         <v>1241563</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="M37" s="7">
         <v>2557</v>
@@ -10286,13 +10310,13 @@
         <v>1879979</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10307,13 +10331,13 @@
         <v>2740818</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>440</v>
+        <v>678</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="H38" s="7">
         <v>3539</v>
@@ -10322,13 +10346,13 @@
         <v>2560950</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="M38" s="7">
         <v>6172</v>
@@ -10337,13 +10361,13 @@
         <v>5301767</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10399,7 +10423,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1413-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEF871B-198E-4605-9EA5-173F9934C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4949C70C-94AD-4B7A-A7DA-1303C55F1F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{884B065F-D444-4DE5-B623-D963B67D9C7C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2AA9A183-D036-49B1-9170-C9B64F4C8787}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="630">
   <si>
     <t>Población con diagnóstico de dolor de espalda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población con diagnóstico de dolor de espalda en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>5,6%</t>
@@ -692,600 +743,600 @@
     <t>91,1%</t>
   </si>
   <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor de espalda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor de espalda en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
     <t>89,62%</t>
   </si>
   <si>
@@ -1442,448 +1493,442 @@
     <t>Población con diagnóstico de dolor de espalda en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F325F927-44CB-4250-8E9C-48E657C723B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F86053-779B-4656-B049-019689569179}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3656,7 +3701,7 @@
         <v>538</v>
       </c>
       <c r="D28" s="7">
-        <v>530249</v>
+        <v>530248</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -3722,7 +3767,7 @@
         <v>2659</v>
       </c>
       <c r="I29" s="7">
-        <v>2728979</v>
+        <v>2728978</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3737,7 +3782,7 @@
         <v>5335</v>
       </c>
       <c r="N29" s="7">
-        <v>5475273</v>
+        <v>5475274</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -3758,7 +3803,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3773,7 +3818,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3788,7 +3833,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D71FF80-3E3C-4C54-9D62-9416F7057858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ED6508-ECC2-48CB-8EDD-C025911C838C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3944,43 +3989,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17259</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="I4" s="7">
+        <v>62948</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="N4" s="7">
+        <v>80207</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,43 +4040,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="D5" s="7">
+        <v>277479</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="I5" s="7">
+        <v>224297</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>466</v>
+      </c>
+      <c r="N5" s="7">
+        <v>501776</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,43 +4091,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4150,13 @@
         <v>28307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4102,13 +4165,13 @@
         <v>64828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -4120,10 +4183,10 @@
         <v>58</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4201,13 @@
         <v>477220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -4153,13 +4216,13 @@
         <v>458937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>868</v>
@@ -4171,10 +4234,10 @@
         <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4305,13 @@
         <v>24077</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -4257,13 +4320,13 @@
         <v>50748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -4272,13 +4335,13 @@
         <v>74825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4356,13 @@
         <v>299969</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>272</v>
@@ -4308,13 +4371,13 @@
         <v>290272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>568</v>
@@ -4323,13 +4386,13 @@
         <v>590241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,49 +4454,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>53655</v>
+        <v>36396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>144668</v>
+        <v>81720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="N13" s="7">
-        <v>198323</v>
+        <v>118116</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,49 +4505,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>576</v>
+        <v>311</v>
       </c>
       <c r="D14" s="7">
-        <v>615065</v>
+        <v>337586</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>492</v>
+        <v>291</v>
       </c>
       <c r="I14" s="7">
-        <v>531528</v>
+        <v>307231</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>1068</v>
+        <v>602</v>
       </c>
       <c r="N14" s="7">
-        <v>1146593</v>
+        <v>644817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4556,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4508,10 +4571,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4523,10 +4586,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4552,13 +4615,13 @@
         <v>31133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -4567,13 +4630,13 @@
         <v>70323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -4582,13 +4645,13 @@
         <v>101456</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4666,13 @@
         <v>181485</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>146</v>
@@ -4618,13 +4681,13 @@
         <v>149268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>314</v>
@@ -4633,13 +4696,13 @@
         <v>330753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4770,13 @@
         <v>37827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -4722,13 +4785,13 @@
         <v>48972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -4737,13 +4800,13 @@
         <v>86799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4821,13 @@
         <v>236154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -4773,13 +4836,13 @@
         <v>229124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>446</v>
@@ -4788,10 +4851,10 @@
         <v>465278</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>103</v>
@@ -4862,13 +4925,13 @@
         <v>70051</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -4877,13 +4940,13 @@
         <v>141287</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4892,13 +4955,13 @@
         <v>211338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4976,13 @@
         <v>592737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>508</v>
@@ -4928,13 +4991,13 @@
         <v>552566</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>1058</v>
@@ -4943,13 +5006,13 @@
         <v>1145303</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5080,13 @@
         <v>63902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>112</v>
@@ -5032,13 +5095,13 @@
         <v>124720</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -5047,13 +5110,13 @@
         <v>188622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5131,13 @@
         <v>715196</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>644</v>
@@ -5083,13 +5146,13 @@
         <v>697858</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1302</v>
@@ -5098,13 +5161,13 @@
         <v>1413054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5235,13 @@
         <v>308953</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>593</v>
@@ -5187,13 +5250,13 @@
         <v>645546</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>881</v>
@@ -5202,13 +5265,13 @@
         <v>954499</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5286,13 @@
         <v>3117826</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>2703</v>
@@ -5238,13 +5301,13 @@
         <v>2909552</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>5624</v>
@@ -5253,13 +5316,13 @@
         <v>6027378</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E20DCD-6EDB-436D-8E28-4C42D15B9F33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA8E3C-9A74-4B0D-B73D-5F7950697B7A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,10 +5526,10 @@
         <v>28447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>92</v>
@@ -5481,10 +5544,10 @@
         <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -5493,10 +5556,10 @@
         <v>85322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>168</v>
@@ -5514,13 +5577,13 @@
         <v>265314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>225</v>
@@ -5532,10 +5595,10 @@
         <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>465</v>
@@ -5544,13 +5607,13 @@
         <v>497142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5681,13 @@
         <v>23014</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5636,10 +5699,10 @@
         <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -5648,13 +5711,13 @@
         <v>59161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5732,13 @@
         <v>479561</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5687,10 +5750,10 @@
         <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>903</v>
@@ -5699,13 +5762,13 @@
         <v>966498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5836,13 @@
         <v>24003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5788,13 +5851,13 @@
         <v>49810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5803,13 +5866,13 @@
         <v>73813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5887,13 @@
         <v>294562</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>287</v>
@@ -5839,13 +5902,13 @@
         <v>286499</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>596</v>
@@ -5854,13 +5917,13 @@
         <v>581061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5991,13 @@
         <v>29735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -5943,13 +6006,13 @@
         <v>70693</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -5958,13 +6021,13 @@
         <v>100428</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +6042,13 @@
         <v>340229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>293</v>
@@ -5994,13 +6057,13 @@
         <v>316590</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -6009,13 +6072,13 @@
         <v>656819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6146,13 @@
         <v>19227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -6098,13 +6161,13 @@
         <v>30869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -6113,13 +6176,13 @@
         <v>50095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6197,13 @@
         <v>191994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -6149,13 +6212,13 @@
         <v>187718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -6164,13 +6227,13 @@
         <v>379713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6301,13 @@
         <v>24214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -6253,13 +6316,13 @@
         <v>31454</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -6268,13 +6331,13 @@
         <v>55668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6352,13 @@
         <v>238909</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
@@ -6304,13 +6367,13 @@
         <v>241661</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>472</v>
@@ -6319,13 +6382,13 @@
         <v>480570</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6456,13 @@
         <v>62230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -6408,13 +6471,13 @@
         <v>113120</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>159</v>
@@ -6423,13 +6486,13 @@
         <v>175350</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6507,13 @@
         <v>594328</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="H23" s="7">
         <v>543</v>
@@ -6459,13 +6522,13 @@
         <v>578174</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>1067</v>
@@ -6474,13 +6537,13 @@
         <v>1172502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6611,13 @@
         <v>66619</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -6563,13 +6626,13 @@
         <v>103773</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6578,13 +6641,13 @@
         <v>170392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6662,13 @@
         <v>711964</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>667</v>
@@ -6614,13 +6677,13 @@
         <v>722394</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>1355</v>
@@ -6629,13 +6692,13 @@
         <v>1434358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6766,13 @@
         <v>277488</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="H28" s="7">
         <v>443</v>
@@ -6718,10 +6781,10 @@
         <v>492741</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>71</v>
@@ -6733,13 +6796,13 @@
         <v>770229</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6817,13 @@
         <v>3116862</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>2895</v>
@@ -6769,13 +6832,13 @@
         <v>3051801</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>81</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>5863</v>
@@ -6784,13 +6847,13 @@
         <v>6168663</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9B9CD-7C45-4C1F-805E-0416643ACF33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC59E9CA-D392-450D-BB91-0AB85EC8C28F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6991,46 +7054,46 @@
         <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>27712</v>
+        <v>31200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
       </c>
       <c r="I4" s="7">
-        <v>33141</v>
+        <v>34180</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
       </c>
       <c r="N4" s="7">
-        <v>60853</v>
+        <v>65380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,46 +7105,46 @@
         <v>291</v>
       </c>
       <c r="D5" s="7">
-        <v>232586</v>
+        <v>280243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>467</v>
       </c>
       <c r="I5" s="7">
-        <v>238262</v>
+        <v>255455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>758</v>
       </c>
       <c r="N5" s="7">
-        <v>470847</v>
+        <v>535697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,7 +7156,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7108,7 +7171,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7123,7 +7186,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7146,46 +7209,46 @@
         <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>78668</v>
+        <v>76743</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>368</v>
+        <v>501</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
       </c>
       <c r="I7" s="7">
-        <v>167185</v>
+        <v>155235</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>504</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="M7" s="7">
         <v>298</v>
       </c>
       <c r="N7" s="7">
-        <v>245853</v>
+        <v>231978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>270</v>
+        <v>507</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,46 +7260,46 @@
         <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>439559</v>
+        <v>440650</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>376</v>
+        <v>511</v>
       </c>
       <c r="H8" s="7">
         <v>483</v>
       </c>
       <c r="I8" s="7">
-        <v>386656</v>
+        <v>359056</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>514</v>
       </c>
       <c r="M8" s="7">
         <v>799</v>
       </c>
       <c r="N8" s="7">
-        <v>826215</v>
+        <v>799706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,7 +7311,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7263,7 +7326,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7278,7 +7341,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072068</v>
+        <v>1031684</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7301,46 +7364,46 @@
         <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>63926</v>
+        <v>61146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>406</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
       </c>
       <c r="I10" s="7">
-        <v>106823</v>
+        <v>99333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
       </c>
       <c r="N10" s="7">
-        <v>170750</v>
+        <v>160479</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>498</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,46 +7415,46 @@
         <v>277</v>
       </c>
       <c r="D11" s="7">
-        <v>258314</v>
+        <v>254904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
       </c>
       <c r="I11" s="7">
-        <v>266461</v>
+        <v>249795</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>636</v>
       </c>
       <c r="N11" s="7">
-        <v>524774</v>
+        <v>504699</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,7 +7466,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7418,7 +7481,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7433,7 +7496,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7456,46 +7519,46 @@
         <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>50378</v>
+        <v>48289</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
       </c>
       <c r="I13" s="7">
-        <v>123627</v>
+        <v>114716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
       </c>
       <c r="N13" s="7">
-        <v>174006</v>
+        <v>163006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>519</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,46 +7570,46 @@
         <v>238</v>
       </c>
       <c r="D14" s="7">
-        <v>271862</v>
+        <v>264268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>381</v>
       </c>
       <c r="I14" s="7">
-        <v>304929</v>
+        <v>361002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
       </c>
       <c r="N14" s="7">
-        <v>576790</v>
+        <v>625268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7621,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7573,7 +7636,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7588,7 +7651,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7611,46 +7674,46 @@
         <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>30458</v>
+        <v>27701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>52137</v>
+        <v>47450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
       </c>
       <c r="N16" s="7">
-        <v>82595</v>
+        <v>75151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,46 +7725,46 @@
         <v>230</v>
       </c>
       <c r="D17" s="7">
-        <v>165452</v>
+        <v>150281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
       </c>
       <c r="I17" s="7">
-        <v>179359</v>
+        <v>160824</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>598</v>
       </c>
       <c r="N17" s="7">
-        <v>344811</v>
+        <v>311105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,7 +7776,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195910</v>
+        <v>177982</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7728,7 +7791,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7743,7 +7806,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427406</v>
+        <v>386256</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7766,46 +7829,46 @@
         <v>113</v>
       </c>
       <c r="D19" s="7">
-        <v>73528</v>
+        <v>70491</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
       </c>
       <c r="I19" s="7">
-        <v>100045</v>
+        <v>93127</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="M19" s="7">
         <v>311</v>
       </c>
       <c r="N19" s="7">
-        <v>173573</v>
+        <v>163618</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,46 +7880,46 @@
         <v>258</v>
       </c>
       <c r="D20" s="7">
-        <v>203695</v>
+        <v>199145</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
       </c>
       <c r="I20" s="7">
-        <v>174860</v>
+        <v>163260</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="M20" s="7">
         <v>519</v>
       </c>
       <c r="N20" s="7">
-        <v>378554</v>
+        <v>362405</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,7 +7931,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7883,7 +7946,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7898,7 +7961,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7921,46 +7984,46 @@
         <v>173</v>
       </c>
       <c r="D22" s="7">
-        <v>168301</v>
+        <v>162765</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>450</v>
       </c>
       <c r="I22" s="7">
-        <v>412736</v>
+        <v>484036</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>623</v>
       </c>
       <c r="N22" s="7">
-        <v>581037</v>
+        <v>646801</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,46 +8035,46 @@
         <v>423</v>
       </c>
       <c r="D23" s="7">
-        <v>455367</v>
+        <v>457422</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="H23" s="7">
         <v>508</v>
       </c>
       <c r="I23" s="7">
-        <v>390621</v>
+        <v>364423</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="M23" s="7">
         <v>931</v>
       </c>
       <c r="N23" s="7">
-        <v>845988</v>
+        <v>821845</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,7 +8086,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>623668</v>
+        <v>620187</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8038,7 +8101,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>803357</v>
+        <v>848459</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8053,7 +8116,7 @@
         <v>1554</v>
       </c>
       <c r="N24" s="7">
-        <v>1427025</v>
+        <v>1468646</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8076,46 +8139,46 @@
         <v>162</v>
       </c>
       <c r="D25" s="7">
-        <v>145445</v>
+        <v>123725</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="H25" s="7">
         <v>349</v>
       </c>
       <c r="I25" s="7">
-        <v>245868</v>
+        <v>205586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
       </c>
       <c r="N25" s="7">
-        <v>391313</v>
+        <v>329311</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>586</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,46 +8190,46 @@
         <v>600</v>
       </c>
       <c r="D26" s="7">
-        <v>713983</v>
+        <v>804995</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>712</v>
       </c>
       <c r="I26" s="7">
-        <v>619804</v>
+        <v>509806</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>1312</v>
       </c>
       <c r="N26" s="7">
-        <v>1333787</v>
+        <v>1314801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,7 +8241,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8193,7 +8256,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8208,7 +8271,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8231,46 +8294,46 @@
         <v>738</v>
       </c>
       <c r="D28" s="7">
-        <v>638416</v>
+        <v>602060</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="H28" s="7">
         <v>1819</v>
       </c>
       <c r="I28" s="7">
-        <v>1241563</v>
+        <v>1233663</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="M28" s="7">
         <v>2557</v>
       </c>
       <c r="N28" s="7">
-        <v>1879979</v>
+        <v>1835724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,46 +8345,46 @@
         <v>2633</v>
       </c>
       <c r="D29" s="7">
-        <v>2740818</v>
+        <v>2851908</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>3539</v>
       </c>
       <c r="I29" s="7">
-        <v>2560950</v>
+        <v>2423619</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="M29" s="7">
         <v>6172</v>
       </c>
       <c r="N29" s="7">
-        <v>5301767</v>
+        <v>5275526</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,7 +8396,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3379234</v>
+        <v>3453968</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8348,7 +8411,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3802513</v>
+        <v>3657282</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8363,7 +8426,7 @@
         <v>8729</v>
       </c>
       <c r="N30" s="7">
-        <v>7181746</v>
+        <v>7111250</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
